--- a/02: Goldman Sachs Excel Skills for Business/02: Forecasting Operating Assumptions/Forecast Assumptions and Glossary.xlsx
+++ b/02: Goldman Sachs Excel Skills for Business/02: Forecasting Operating Assumptions/Forecast Assumptions and Glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marisayow/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirFa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAA2FB-EF28-A449-BDC9-31AA1EA44355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83AC1D-BBC1-44CF-9D5E-008538329636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23060" windowHeight="15640" xr2:uid="{951194C4-9D61-46BE-B0AE-7170A8ED2BCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{951194C4-9D61-46BE-B0AE-7170A8ED2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
   <si>
     <t>*</t>
   </si>
@@ -235,17 +235,34 @@
     <t>An operating expense is an ongoing cost incurred in 
 running a business, that is not a direct cost. Examples include head office costs, general and administrative costs, and centralised marketing costs.</t>
   </si>
+  <si>
+    <t>COGS per Drink</t>
+  </si>
+  <si>
+    <t>COGS per Ice Cream</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>Occupany</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\);\-"/>
     <numFmt numFmtId="166" formatCode="&quot;FY&quot;yy&quot;E&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0%;\(0.0%\);\-"/>
     <numFmt numFmtId="168" formatCode="&quot;FY&quot;yy&quot;A&quot;"/>
+    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="173" formatCode="0.00%;\(0.00%\);\-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -386,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -400,17 +417,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,13 +445,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,6 +458,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1547,9 +1571,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341FACEC-CA70-4CB6-AF3B-E65A158BB57B}">
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="50.6640625" style="4" customWidth="1"/>
@@ -1557,12 +1581,12 @@
     <col min="5" max="16384" width="20.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1570,7 +1594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
@@ -1578,7 +1602,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
@@ -1586,7 +1610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1594,7 +1618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1602,7 +1626,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="70" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:3" ht="66" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
@@ -1610,15 +1634,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="98" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:3" ht="105.6" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
@@ -1626,7 +1650,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="42" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1642,7 +1666,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="224" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:3" ht="211.2" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
@@ -1650,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1658,7 +1682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1666,7 +1690,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="56" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1674,7 +1698,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
     </row>
@@ -1691,14 +1715,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563968EA-25F0-45A8-AFDA-036DFD800586}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" style="4" bestFit="1" customWidth="1"/>
@@ -1709,7 +1733,7 @@
     <col min="11" max="16384" width="20.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
@@ -1717,7 +1741,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1748,7 +1772,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -1756,7 +1780,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1770,7 +1794,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -1778,7 +1802,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1789,7 +1813,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1797,13 +1821,27 @@
         <v>3</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="23">
+        <v>100000</v>
+      </c>
+      <c r="F8" s="23">
+        <f>E8*1.1</f>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G8" s="23">
+        <f>F8*(F8/E8 - 0.01)</f>
+        <v>119900.00000000003</v>
+      </c>
+      <c r="H8" s="23">
+        <f t="shared" ref="H8:I8" si="1">G8*(G8/F8 - 0.01)</f>
+        <v>129492.00000000004</v>
+      </c>
+      <c r="I8" s="23">
+        <f t="shared" si="1"/>
+        <v>138556.44000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1811,13 +1849,27 @@
         <v>11</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="26">
+        <v>4</v>
+      </c>
+      <c r="F9" s="24">
+        <f>E9*1.04</f>
+        <v>4.16</v>
+      </c>
+      <c r="G9" s="24">
+        <f t="shared" ref="G9:I9" si="2">F9*1.04</f>
+        <v>4.3264000000000005</v>
+      </c>
+      <c r="H9" s="24">
+        <f t="shared" si="2"/>
+        <v>4.4994560000000003</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="2"/>
+        <v>4.6794342400000009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1825,7 +1877,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1836,23 +1888,63 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="23">
+        <v>60000</v>
+      </c>
+      <c r="F12" s="23">
+        <f>E12*1.1</f>
+        <v>66000</v>
+      </c>
+      <c r="G12" s="23">
+        <f>F12*(F12/E12 - 0.01)</f>
+        <v>71940</v>
+      </c>
+      <c r="H12" s="23">
+        <f t="shared" ref="H12" si="3">G12*(G12/F12 - 0.01)</f>
+        <v>77695.200000000012</v>
+      </c>
+      <c r="I12" s="23">
+        <f t="shared" ref="I12" si="4">H12*(H12/G12 - 0.01)</f>
+        <v>83133.864000000016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="26">
+        <v>3</v>
+      </c>
+      <c r="F13" s="24">
+        <f>E13*1.04</f>
+        <v>3.12</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" ref="G13:I13" si="5">F13*1.04</f>
+        <v>3.2448000000000001</v>
+      </c>
+      <c r="H13" s="24">
+        <f t="shared" si="5"/>
+        <v>3.3745920000000003</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="5"/>
+        <v>3.5095756800000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -1860,7 +1952,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1871,23 +1963,63 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>3</v>
+      </c>
       <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="23">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="23">
+        <f>E16*1.1</f>
+        <v>55000.000000000007</v>
+      </c>
+      <c r="G16" s="23">
+        <f>F16*(F16/E16 - 0.01)</f>
+        <v>59950.000000000015</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" ref="H16" si="6">G16*(G16/F16 - 0.01)</f>
+        <v>64746.000000000022</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" ref="I16" si="7">H16*(H16/G16 - 0.01)</f>
+        <v>69278.22000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E17" s="26">
+        <v>2.5</v>
+      </c>
+      <c r="F17" s="24">
+        <f>E17*1.04</f>
+        <v>2.6</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" ref="G17:I17" si="8">F17*1.04</f>
+        <v>2.7040000000000002</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="8"/>
+        <v>2.8121600000000004</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="8"/>
+        <v>2.9246464000000008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -1895,7 +2027,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +2041,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -1917,7 +2049,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -1928,7 +2060,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1936,49 +2068,198 @@
         <v>11</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="16"/>
+      <c r="E22" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="26">
+        <f>E22*1.02</f>
+        <v>1.53</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" ref="G22:I22" si="9">F22*1.02</f>
+        <v>1.5606</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="9"/>
+        <v>1.591812</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" si="9"/>
+        <v>1.6236482400000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D23" s="20"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="16"/>
+      <c r="E23" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" ref="F23:I24" si="10">E23*1.02</f>
+        <v>0.81600000000000006</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="10"/>
+        <v>0.83232000000000006</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="10"/>
+        <v>0.84896640000000012</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="10"/>
+        <v>0.86594572800000014</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>11</v>
+      </c>
       <c r="D24" s="20"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E24" s="27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1444400000000001</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1673288000000002</v>
+      </c>
+      <c r="I24" s="26">
+        <f t="shared" si="10"/>
+        <v>1.1906753760000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+    </row>
+    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="27">
+        <v>150000</v>
+      </c>
+      <c r="F27" s="26">
+        <f>E27*1.05</f>
+        <v>157500</v>
+      </c>
+      <c r="G27" s="26">
+        <f t="shared" ref="G27:I27" si="11">F27*1.05</f>
+        <v>165375</v>
+      </c>
+      <c r="H27" s="26">
+        <f t="shared" si="11"/>
+        <v>173643.75</v>
+      </c>
+      <c r="I27" s="26">
+        <f t="shared" si="11"/>
+        <v>182325.9375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="27">
+        <v>60000</v>
+      </c>
+      <c r="F28" s="26">
+        <f>E28*1.03</f>
+        <v>61800</v>
+      </c>
+      <c r="G28" s="26">
+        <f t="shared" ref="G28:I28" si="12">F28*1.03</f>
+        <v>63654</v>
+      </c>
+      <c r="H28" s="26">
+        <f t="shared" si="12"/>
+        <v>65563.62</v>
+      </c>
+      <c r="I28" s="26">
+        <f t="shared" si="12"/>
+        <v>67530.528599999991</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="27">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" ref="F29:I29" si="13">E29*1.05</f>
+        <v>10500</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="13"/>
+        <v>11025</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="13"/>
+        <v>11576.25</v>
+      </c>
+      <c r="I29" s="26">
+        <f t="shared" si="13"/>
+        <v>12155.0625</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="27">
+        <v>5000</v>
+      </c>
+      <c r="F30" s="26">
+        <f t="shared" ref="F30:I30" si="14">E30*1.05</f>
+        <v>5250</v>
+      </c>
+      <c r="G30" s="26">
+        <f t="shared" si="14"/>
+        <v>5512.5</v>
+      </c>
+      <c r="H30" s="26">
+        <f t="shared" si="14"/>
+        <v>5788.125</v>
+      </c>
+      <c r="I30" s="26">
+        <f t="shared" si="14"/>
+        <v>6077.53125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -1986,7 +2267,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2278,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2005,13 +2286,27 @@
         <v>17</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E33" s="29">
+        <v>-0.05</v>
+      </c>
+      <c r="F33" s="29">
+        <f>E33+0.25%</f>
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="G33" s="29">
+        <f t="shared" ref="G33:I33" si="15">F33+0.25%</f>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="H33" s="29">
+        <f t="shared" si="15"/>
+        <v>-4.2499999999999996E-2</v>
+      </c>
+      <c r="I33" s="29">
+        <f t="shared" si="15"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -2019,7 +2314,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2328,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -2041,7 +2336,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
@@ -2049,13 +2344,28 @@
         <v>17</v>
       </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E37" s="25">
+        <f t="shared" ref="E37:I37" si="16">E33</f>
+        <v>-0.05</v>
+      </c>
+      <c r="F37" s="25">
+        <f t="shared" si="16"/>
+        <v>-4.7500000000000001E-2</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="16"/>
+        <v>-4.4999999999999998E-2</v>
+      </c>
+      <c r="H37" s="25">
+        <f t="shared" si="16"/>
+        <v>-4.2499999999999996E-2</v>
+      </c>
+      <c r="I37" s="25">
+        <f t="shared" si="16"/>
+        <v>-3.9999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
@@ -2063,13 +2373,28 @@
         <v>17</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E38" s="25">
+        <f t="shared" ref="E38:I38" si="17">-1%</f>
+        <v>-0.01</v>
+      </c>
+      <c r="F38" s="25">
+        <f t="shared" si="17"/>
+        <v>-0.01</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="17"/>
+        <v>-0.01</v>
+      </c>
+      <c r="H38" s="25">
+        <f t="shared" si="17"/>
+        <v>-0.01</v>
+      </c>
+      <c r="I38" s="25">
+        <f t="shared" si="17"/>
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
@@ -2077,13 +2402,28 @@
         <v>1</v>
       </c>
       <c r="D39" s="20"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="25">
+        <f>60%</f>
+        <v>0.6</v>
+      </c>
+      <c r="F39" s="25">
+        <f>60%</f>
+        <v>0.6</v>
+      </c>
+      <c r="G39" s="25">
+        <f>60%</f>
+        <v>0.6</v>
+      </c>
+      <c r="H39" s="25">
+        <f>60%</f>
+        <v>0.6</v>
+      </c>
+      <c r="I39" s="25">
+        <f>60%</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2091,7 +2431,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2445,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -2113,7 +2453,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
@@ -2121,13 +2461,28 @@
         <v>1</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E43" s="25">
+        <f>21%</f>
+        <v>0.21</v>
+      </c>
+      <c r="F43" s="25">
+        <f>21%</f>
+        <v>0.21</v>
+      </c>
+      <c r="G43" s="25">
+        <f>21%</f>
+        <v>0.21</v>
+      </c>
+      <c r="H43" s="25">
+        <f>21%</f>
+        <v>0.21</v>
+      </c>
+      <c r="I43" s="25">
+        <f>21%</f>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
         <v>18</v>
       </c>
@@ -2135,13 +2490,28 @@
         <v>1</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E44" s="25">
+        <f>4%</f>
+        <v>0.04</v>
+      </c>
+      <c r="F44" s="25">
+        <f>4%</f>
+        <v>0.04</v>
+      </c>
+      <c r="G44" s="25">
+        <f>4%</f>
+        <v>0.04</v>
+      </c>
+      <c r="H44" s="25">
+        <f>4%</f>
+        <v>0.04</v>
+      </c>
+      <c r="I44" s="25">
+        <f>4%</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2149,13 +2519,28 @@
         <v>1</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E45" s="25">
+        <f>1%</f>
+        <v>0.01</v>
+      </c>
+      <c r="F45" s="25">
+        <f>1%</f>
+        <v>0.01</v>
+      </c>
+      <c r="G45" s="25">
+        <f>1%</f>
+        <v>0.01</v>
+      </c>
+      <c r="H45" s="25">
+        <f>1%</f>
+        <v>0.01</v>
+      </c>
+      <c r="I45" s="25">
+        <f>1%</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2163,7 +2548,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2174,6 +2559,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F28" formula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/02: Goldman Sachs Excel Skills for Business/02: Forecasting Operating Assumptions/Forecast Assumptions and Glossary.xlsx
+++ b/02: Goldman Sachs Excel Skills for Business/02: Forecasting Operating Assumptions/Forecast Assumptions and Glossary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SirFa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marisayow/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A83AC1D-BBC1-44CF-9D5E-008538329636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAA2FB-EF28-A449-BDC9-31AA1EA44355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{951194C4-9D61-46BE-B0AE-7170A8ED2BCE}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23060" windowHeight="15640" xr2:uid="{951194C4-9D61-46BE-B0AE-7170A8ED2BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Glossary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>*</t>
   </si>
@@ -235,34 +235,17 @@
     <t>An operating expense is an ongoing cost incurred in 
 running a business, that is not a direct cost. Examples include head office costs, general and administrative costs, and centralised marketing costs.</t>
   </si>
-  <si>
-    <t>COGS per Drink</t>
-  </si>
-  <si>
-    <t>COGS per Ice Cream</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>Occupany</t>
-  </si>
-  <si>
-    <t>Marketing</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0;\(#,##0\);\-"/>
     <numFmt numFmtId="165" formatCode="#,##0.00;\(#,##0.00\);\-"/>
     <numFmt numFmtId="166" formatCode="&quot;FY&quot;yy&quot;E&quot;"/>
     <numFmt numFmtId="167" formatCode="0.0%;\(0.0%\);\-"/>
     <numFmt numFmtId="168" formatCode="&quot;FY&quot;yy&quot;A&quot;"/>
-    <numFmt numFmtId="171" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="173" formatCode="0.00%;\(0.00%\);\-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -403,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -417,17 +400,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -445,10 +428,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,16 +444,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="167" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1571,9 +1547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{341FACEC-CA70-4CB6-AF3B-E65A158BB57B}">
   <dimension ref="B1:C17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="3" width="50.6640625" style="4" customWidth="1"/>
@@ -1581,12 +1557,12 @@
     <col min="5" max="16384" width="20.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:3" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="40" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +1570,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B4" s="15" t="s">
         <v>26</v>
       </c>
@@ -1602,7 +1578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B5" s="15" t="s">
         <v>28</v>
       </c>
@@ -1610,7 +1586,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B6" s="15" t="s">
         <v>13</v>
       </c>
@@ -1618,7 +1594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="28" x14ac:dyDescent="0.15">
       <c r="B7" s="15" t="s">
         <v>25</v>
       </c>
@@ -1626,7 +1602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="66" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="70" x14ac:dyDescent="0.15">
       <c r="B8" s="15" t="s">
         <v>32</v>
       </c>
@@ -1634,15 +1610,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="105.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3" ht="98" x14ac:dyDescent="0.15">
       <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
@@ -1650,7 +1626,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B11" s="15" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1634,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3" ht="42" x14ac:dyDescent="0.15">
       <c r="B12" s="15" t="s">
         <v>20</v>
       </c>
@@ -1666,7 +1642,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="211.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3" ht="224" x14ac:dyDescent="0.15">
       <c r="B13" s="15" t="s">
         <v>29</v>
       </c>
@@ -1674,7 +1650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1682,7 +1658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1690,7 +1666,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="56" x14ac:dyDescent="0.15">
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1674,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="13"/>
       <c r="C17" s="14"/>
     </row>
@@ -1715,14 +1691,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{563968EA-25F0-45A8-AFDA-036DFD800586}">
   <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D6" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="20.6640625" defaultRowHeight="15" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
     <col min="2" max="2" width="36" style="4" bestFit="1" customWidth="1"/>
@@ -1733,7 +1709,7 @@
     <col min="11" max="16384" width="20.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="6" t="s">
         <v>45</v>
       </c>
@@ -1741,7 +1717,7 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
@@ -1772,7 +1748,7 @@
         <v>45657</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
@@ -1780,7 +1756,7 @@
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1770,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
     </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
@@ -1802,7 +1778,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="18"/>
     </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1813,7 +1789,7 @@
       <c r="H7" s="18"/>
       <c r="I7" s="18"/>
     </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1821,27 +1797,13 @@
         <v>3</v>
       </c>
       <c r="D8" s="20"/>
-      <c r="E8" s="23">
-        <v>100000</v>
-      </c>
-      <c r="F8" s="23">
-        <f>E8*1.1</f>
-        <v>110000.00000000001</v>
-      </c>
-      <c r="G8" s="23">
-        <f>F8*(F8/E8 - 0.01)</f>
-        <v>119900.00000000003</v>
-      </c>
-      <c r="H8" s="23">
-        <f t="shared" ref="H8:I8" si="1">G8*(G8/F8 - 0.01)</f>
-        <v>129492.00000000004</v>
-      </c>
-      <c r="I8" s="23">
-        <f t="shared" si="1"/>
-        <v>138556.44000000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1849,27 +1811,13 @@
         <v>11</v>
       </c>
       <c r="D9" s="20"/>
-      <c r="E9" s="26">
-        <v>4</v>
-      </c>
-      <c r="F9" s="24">
-        <f>E9*1.04</f>
-        <v>4.16</v>
-      </c>
-      <c r="G9" s="24">
-        <f t="shared" ref="G9:I9" si="2">F9*1.04</f>
-        <v>4.3264000000000005</v>
-      </c>
-      <c r="H9" s="24">
-        <f t="shared" si="2"/>
-        <v>4.4994560000000003</v>
-      </c>
-      <c r="I9" s="24">
-        <f t="shared" si="2"/>
-        <v>4.6794342400000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
@@ -1877,7 +1825,7 @@
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1888,63 +1836,23 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
     </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>3</v>
-      </c>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D12" s="18"/>
-      <c r="E12" s="23">
-        <v>60000</v>
-      </c>
-      <c r="F12" s="23">
-        <f>E12*1.1</f>
-        <v>66000</v>
-      </c>
-      <c r="G12" s="23">
-        <f>F12*(F12/E12 - 0.01)</f>
-        <v>71940</v>
-      </c>
-      <c r="H12" s="23">
-        <f t="shared" ref="H12" si="3">G12*(G12/F12 - 0.01)</f>
-        <v>77695.200000000012</v>
-      </c>
-      <c r="I12" s="23">
-        <f t="shared" ref="I12" si="4">H12*(H12/G12 - 0.01)</f>
-        <v>83133.864000000016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D13" s="18"/>
-      <c r="E13" s="26">
-        <v>3</v>
-      </c>
-      <c r="F13" s="24">
-        <f>E13*1.04</f>
-        <v>3.12</v>
-      </c>
-      <c r="G13" s="24">
-        <f t="shared" ref="G13:I13" si="5">F13*1.04</f>
-        <v>3.2448000000000001</v>
-      </c>
-      <c r="H13" s="24">
-        <f t="shared" si="5"/>
-        <v>3.3745920000000003</v>
-      </c>
-      <c r="I13" s="24">
-        <f t="shared" si="5"/>
-        <v>3.5095756800000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
@@ -1952,7 +1860,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
@@ -1963,63 +1871,23 @@
       <c r="H15" s="18"/>
       <c r="I15" s="18"/>
     </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D16" s="18"/>
-      <c r="E16" s="23">
-        <v>50000</v>
-      </c>
-      <c r="F16" s="23">
-        <f>E16*1.1</f>
-        <v>55000.000000000007</v>
-      </c>
-      <c r="G16" s="23">
-        <f>F16*(F16/E16 - 0.01)</f>
-        <v>59950.000000000015</v>
-      </c>
-      <c r="H16" s="23">
-        <f t="shared" ref="H16" si="6">G16*(G16/F16 - 0.01)</f>
-        <v>64746.000000000022</v>
-      </c>
-      <c r="I16" s="23">
-        <f t="shared" ref="I16" si="7">H16*(H16/G16 - 0.01)</f>
-        <v>69278.22000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D17" s="18"/>
-      <c r="E17" s="26">
-        <v>2.5</v>
-      </c>
-      <c r="F17" s="24">
-        <f>E17*1.04</f>
-        <v>2.6</v>
-      </c>
-      <c r="G17" s="24">
-        <f t="shared" ref="G17:I17" si="8">F17*1.04</f>
-        <v>2.7040000000000002</v>
-      </c>
-      <c r="H17" s="24">
-        <f t="shared" si="8"/>
-        <v>2.8121600000000004</v>
-      </c>
-      <c r="I17" s="24">
-        <f t="shared" si="8"/>
-        <v>2.9246464000000008</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -2027,7 +1895,7 @@
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>0</v>
       </c>
@@ -2041,7 +1909,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
     </row>
-    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
@@ -2049,7 +1917,7 @@
       <c r="H20" s="18"/>
       <c r="I20" s="18"/>
     </row>
-    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
@@ -2060,7 +1928,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
     </row>
-    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="4" t="s">
         <v>14</v>
       </c>
@@ -2068,198 +1936,49 @@
         <v>11</v>
       </c>
       <c r="D22" s="20"/>
-      <c r="E22" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="F22" s="26">
-        <f>E22*1.02</f>
-        <v>1.53</v>
-      </c>
-      <c r="G22" s="26">
-        <f t="shared" ref="G22:I22" si="9">F22*1.02</f>
-        <v>1.5606</v>
-      </c>
-      <c r="H22" s="26">
-        <f t="shared" si="9"/>
-        <v>1.591812</v>
-      </c>
-      <c r="I22" s="26">
-        <f t="shared" si="9"/>
-        <v>1.6236482400000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="16"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="28">
-        <v>0.8</v>
-      </c>
-      <c r="F23" s="26">
-        <f t="shared" ref="F23:I24" si="10">E23*1.02</f>
-        <v>0.81600000000000006</v>
-      </c>
-      <c r="G23" s="26">
-        <f t="shared" si="10"/>
-        <v>0.83232000000000006</v>
-      </c>
-      <c r="H23" s="26">
-        <f t="shared" si="10"/>
-        <v>0.84896640000000012</v>
-      </c>
-      <c r="I23" s="26">
-        <f t="shared" si="10"/>
-        <v>0.86594572800000014</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="16"/>
       <c r="D24" s="20"/>
-      <c r="E24" s="27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F24" s="26">
-        <f t="shared" si="10"/>
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="G24" s="26">
-        <f t="shared" si="10"/>
-        <v>1.1444400000000001</v>
-      </c>
-      <c r="H24" s="26">
-        <f t="shared" si="10"/>
-        <v>1.1673288000000002</v>
-      </c>
-      <c r="I24" s="26">
-        <f t="shared" si="10"/>
-        <v>1.1906753760000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+    </row>
+    <row r="25" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26"/>
-      <c r="I26"/>
-    </row>
-    <row r="27" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="27">
-        <v>150000</v>
-      </c>
-      <c r="F27" s="26">
-        <f>E27*1.05</f>
-        <v>157500</v>
-      </c>
-      <c r="G27" s="26">
-        <f t="shared" ref="G27:I27" si="11">F27*1.05</f>
-        <v>165375</v>
-      </c>
-      <c r="H27" s="26">
-        <f t="shared" si="11"/>
-        <v>173643.75</v>
-      </c>
-      <c r="I27" s="26">
-        <f t="shared" si="11"/>
-        <v>182325.9375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E28" s="27">
-        <v>60000</v>
-      </c>
-      <c r="F28" s="26">
-        <f>E28*1.03</f>
-        <v>61800</v>
-      </c>
-      <c r="G28" s="26">
-        <f t="shared" ref="G28:I28" si="12">F28*1.03</f>
-        <v>63654</v>
-      </c>
-      <c r="H28" s="26">
-        <f t="shared" si="12"/>
-        <v>65563.62</v>
-      </c>
-      <c r="I28" s="26">
-        <f t="shared" si="12"/>
-        <v>67530.528599999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="27">
-        <v>10000</v>
-      </c>
-      <c r="F29" s="26">
-        <f t="shared" ref="F29:I29" si="13">E29*1.05</f>
-        <v>10500</v>
-      </c>
-      <c r="G29" s="26">
-        <f t="shared" si="13"/>
-        <v>11025</v>
-      </c>
-      <c r="H29" s="26">
-        <f t="shared" si="13"/>
-        <v>11576.25</v>
-      </c>
-      <c r="I29" s="26">
-        <f t="shared" si="13"/>
-        <v>12155.0625</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="27">
-        <v>5000</v>
-      </c>
-      <c r="F30" s="26">
-        <f t="shared" ref="F30:I30" si="14">E30*1.05</f>
-        <v>5250</v>
-      </c>
-      <c r="G30" s="26">
-        <f t="shared" si="14"/>
-        <v>5512.5</v>
-      </c>
-      <c r="H30" s="26">
-        <f t="shared" si="14"/>
-        <v>5788.125</v>
-      </c>
-      <c r="I30" s="26">
-        <f t="shared" si="14"/>
-        <v>6077.53125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+    </row>
+    <row r="31" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -2267,7 +1986,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5" t="s">
         <v>27</v>
       </c>
@@ -2278,7 +1997,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
     </row>
-    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="4" t="s">
         <v>16</v>
       </c>
@@ -2286,27 +2005,13 @@
         <v>17</v>
       </c>
       <c r="D33" s="20"/>
-      <c r="E33" s="29">
-        <v>-0.05</v>
-      </c>
-      <c r="F33" s="29">
-        <f>E33+0.25%</f>
-        <v>-4.7500000000000001E-2</v>
-      </c>
-      <c r="G33" s="29">
-        <f t="shared" ref="G33:I33" si="15">F33+0.25%</f>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H33" s="29">
-        <f t="shared" si="15"/>
-        <v>-4.2499999999999996E-2</v>
-      </c>
-      <c r="I33" s="29">
-        <f t="shared" si="15"/>
-        <v>-3.9999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
@@ -2314,7 +2019,7 @@
       <c r="H34" s="18"/>
       <c r="I34" s="18"/>
     </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>0</v>
       </c>
@@ -2328,7 +2033,7 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
     </row>
-    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
@@ -2336,7 +2041,7 @@
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
     </row>
-    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
@@ -2344,28 +2049,13 @@
         <v>17</v>
       </c>
       <c r="D37" s="20"/>
-      <c r="E37" s="25">
-        <f t="shared" ref="E37:I37" si="16">E33</f>
-        <v>-0.05</v>
-      </c>
-      <c r="F37" s="25">
-        <f t="shared" si="16"/>
-        <v>-4.7500000000000001E-2</v>
-      </c>
-      <c r="G37" s="25">
-        <f t="shared" si="16"/>
-        <v>-4.4999999999999998E-2</v>
-      </c>
-      <c r="H37" s="25">
-        <f t="shared" si="16"/>
-        <v>-4.2499999999999996E-2</v>
-      </c>
-      <c r="I37" s="25">
-        <f t="shared" si="16"/>
-        <v>-3.9999999999999994E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="4" t="s">
         <v>48</v>
       </c>
@@ -2373,28 +2063,13 @@
         <v>17</v>
       </c>
       <c r="D38" s="20"/>
-      <c r="E38" s="25">
-        <f t="shared" ref="E38:I38" si="17">-1%</f>
-        <v>-0.01</v>
-      </c>
-      <c r="F38" s="25">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
-      </c>
-      <c r="G38" s="25">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
-      </c>
-      <c r="H38" s="25">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
-      </c>
-      <c r="I38" s="25">
-        <f t="shared" si="17"/>
-        <v>-0.01</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="4" t="s">
         <v>32</v>
       </c>
@@ -2402,28 +2077,13 @@
         <v>1</v>
       </c>
       <c r="D39" s="20"/>
-      <c r="E39" s="25">
-        <f>60%</f>
-        <v>0.6</v>
-      </c>
-      <c r="F39" s="25">
-        <f>60%</f>
-        <v>0.6</v>
-      </c>
-      <c r="G39" s="25">
-        <f>60%</f>
-        <v>0.6</v>
-      </c>
-      <c r="H39" s="25">
-        <f>60%</f>
-        <v>0.6</v>
-      </c>
-      <c r="I39" s="25">
-        <f>60%</f>
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
       <c r="F40" s="18"/>
@@ -2431,7 +2091,7 @@
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
     </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>0</v>
       </c>
@@ -2445,7 +2105,7 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
     </row>
-    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
       <c r="F42" s="18"/>
@@ -2453,7 +2113,7 @@
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="4" t="s">
         <v>2</v>
       </c>
@@ -2461,28 +2121,13 @@
         <v>1</v>
       </c>
       <c r="D43" s="20"/>
-      <c r="E43" s="25">
-        <f>21%</f>
-        <v>0.21</v>
-      </c>
-      <c r="F43" s="25">
-        <f>21%</f>
-        <v>0.21</v>
-      </c>
-      <c r="G43" s="25">
-        <f>21%</f>
-        <v>0.21</v>
-      </c>
-      <c r="H43" s="25">
-        <f>21%</f>
-        <v>0.21</v>
-      </c>
-      <c r="I43" s="25">
-        <f>21%</f>
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+    </row>
+    <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="4" t="s">
         <v>18</v>
       </c>
@@ -2490,28 +2135,13 @@
         <v>1</v>
       </c>
       <c r="D44" s="20"/>
-      <c r="E44" s="25">
-        <f>4%</f>
-        <v>0.04</v>
-      </c>
-      <c r="F44" s="25">
-        <f>4%</f>
-        <v>0.04</v>
-      </c>
-      <c r="G44" s="25">
-        <f>4%</f>
-        <v>0.04</v>
-      </c>
-      <c r="H44" s="25">
-        <f>4%</f>
-        <v>0.04</v>
-      </c>
-      <c r="I44" s="25">
-        <f>4%</f>
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+    </row>
+    <row r="45" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="4" t="s">
         <v>21</v>
       </c>
@@ -2519,28 +2149,13 @@
         <v>1</v>
       </c>
       <c r="D45" s="20"/>
-      <c r="E45" s="25">
-        <f>1%</f>
-        <v>0.01</v>
-      </c>
-      <c r="F45" s="25">
-        <f>1%</f>
-        <v>0.01</v>
-      </c>
-      <c r="G45" s="25">
-        <f>1%</f>
-        <v>0.01</v>
-      </c>
-      <c r="H45" s="25">
-        <f>1%</f>
-        <v>0.01</v>
-      </c>
-      <c r="I45" s="25">
-        <f>1%</f>
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="46" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18"/>
@@ -2548,7 +2163,7 @@
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2559,9 +2174,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="18" orientation="portrait" horizontalDpi="4294967293" verticalDpi="1200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F28" formula="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>